--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mif-Cxcr2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H2">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J2">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N2">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P2">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q2">
-        <v>3671.487929174046</v>
+        <v>0.1082250521333333</v>
       </c>
       <c r="R2">
-        <v>33043.39136256642</v>
+        <v>0.9740254692</v>
       </c>
       <c r="S2">
-        <v>0.4714946463307135</v>
+        <v>0.159458157502015</v>
       </c>
       <c r="T2">
-        <v>0.4714946463307135</v>
+        <v>0.159458157502015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.34546866666667</v>
+        <v>6.556445</v>
       </c>
       <c r="H3">
-        <v>70.036406</v>
+        <v>19.669335</v>
       </c>
       <c r="I3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="J3">
-        <v>0.4715073400272545</v>
+        <v>0.2003595613103873</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.012702</v>
       </c>
       <c r="O3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P3">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q3">
-        <v>0.09884471433466666</v>
+        <v>0.02775998813</v>
       </c>
       <c r="R3">
-        <v>0.8896024290119999</v>
+        <v>0.24983989317</v>
       </c>
       <c r="S3">
-        <v>1.269369654100115E-05</v>
+        <v>0.04090140380837227</v>
       </c>
       <c r="T3">
-        <v>1.269369654100115E-05</v>
+        <v>0.04090140380837227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>37.720135</v>
       </c>
       <c r="I4">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J4">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N4">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P4">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q4">
-        <v>1977.386165979383</v>
+        <v>0.2075445650222222</v>
       </c>
       <c r="R4">
-        <v>17796.47549381445</v>
+        <v>1.8679010852</v>
       </c>
       <c r="S4">
-        <v>0.2539370982481849</v>
+        <v>0.3057949456769773</v>
       </c>
       <c r="T4">
-        <v>0.2539370982481849</v>
+        <v>0.3057949456769773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>37.720135</v>
       </c>
       <c r="I5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="J5">
-        <v>0.2539439348061199</v>
+        <v>0.3842320902647997</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.012702</v>
       </c>
       <c r="O5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P5">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q5">
         <v>0.05323568386333333</v>
@@ -756,10 +756,10 @@
         <v>0.47912115477</v>
       </c>
       <c r="S5">
-        <v>6.836557934963087E-06</v>
+        <v>0.0784371445878224</v>
       </c>
       <c r="T5">
-        <v>6.836557934963087E-06</v>
+        <v>0.07843714458782242</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H6">
         <v>40.780714</v>
       </c>
       <c r="I6">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J6">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>157.26769</v>
+        <v>0.01650666666666667</v>
       </c>
       <c r="N6">
-        <v>471.80307</v>
+        <v>0.04952</v>
       </c>
       <c r="O6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="P6">
-        <v>0.9999730784752147</v>
+        <v>0.795859985214233</v>
       </c>
       <c r="Q6">
-        <v>2137.829562443553</v>
+        <v>0.2243845508088889</v>
       </c>
       <c r="R6">
-        <v>19240.46606199198</v>
+        <v>2.01946095728</v>
       </c>
       <c r="S6">
-        <v>0.2745413338963164</v>
+        <v>0.3306068820352406</v>
       </c>
       <c r="T6">
-        <v>0.2745413338963164</v>
+        <v>0.3306068820352406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.59357133333333</v>
+        <v>13.59357133333334</v>
       </c>
       <c r="H7">
         <v>40.780714</v>
       </c>
       <c r="I7">
-        <v>0.2745487251666257</v>
+        <v>0.4154083484248129</v>
       </c>
       <c r="J7">
-        <v>0.2745487251666257</v>
+        <v>0.415408348424813</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,22 +868,22 @@
         <v>0.012702</v>
       </c>
       <c r="O7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="P7">
-        <v>2.692152478531388E-05</v>
+        <v>0.2041400147857671</v>
       </c>
       <c r="Q7">
-        <v>0.05755518102533332</v>
+        <v>0.05755518102533334</v>
       </c>
       <c r="R7">
-        <v>0.5179966292279999</v>
+        <v>0.517996629228</v>
       </c>
       <c r="S7">
-        <v>7.391270309349641E-06</v>
+        <v>0.08480146638957241</v>
       </c>
       <c r="T7">
-        <v>7.391270309349641E-06</v>
+        <v>0.08480146638957242</v>
       </c>
     </row>
   </sheetData>
